--- a/ArchivosDePrueba/app/resources/data.xlsx
+++ b/ArchivosDePrueba/app/resources/data.xlsx
@@ -529,7 +529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,17 +572,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>80.245.2.142</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>santurtzi.net</t>
-        </is>
-      </c>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -592,29 +588,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Microsoft IIS httpd</t>
+          <t>dnsmasq</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>80.245.2.142</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>santurtzi.net</t>
-        </is>
-      </c>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -624,72 +616,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>domain</t>
+          <t>https</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>dnsmasq</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>80.245.2.142</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>santurtzi.net</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8008</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>http</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>80.245.2.142</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>santurtzi.net</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>http</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Microsoft IIS httpd</t>
+          <t>HTTP server (unknown)</t>
         </is>
       </c>
     </row>

--- a/ArchivosDePrueba/app/resources/data.xlsx
+++ b/ArchivosDePrueba/app/resources/data.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,426 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>version</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HTTP server (unknown)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>HTTP server (unknown)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>HTTP server (unknown)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>HTTP server (unknown)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>HTTP server (unknown)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>HTTP server (unknown)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>192.168.0.1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>cpe:/a:thekelleys:dnsmasq:2.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>192.168.0.1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>cpe:/a:thekelleys:dnsmasq:2.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>192.168.0.1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>cpe:/a:thekelleys:dnsmasq:2.78</t>
         </is>
       </c>
     </row>
@@ -529,7 +949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,62 +989,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>dnsmasq</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>HTTP server (unknown)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ArchivosDePrueba/app/resources/data.xlsx
+++ b/ArchivosDePrueba/app/resources/data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,73 @@
           <t>version</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cve_str</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HTTP server (unknown)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -478,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,424 +584,9 @@
           <t>version</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>dnsmasq</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>HTTP server (unknown)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>dnsmasq</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>HTTP server (unknown)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>dnsmasq</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>HTTP server (unknown)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>dnsmasq</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>HTTP server (unknown)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>dnsmasq</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>HTTP server (unknown)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>dnsmasq</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>HTTP server (unknown)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>192.168.0.1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>cpe:/a:thekelleys:dnsmasq:2.78</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>192.168.0.1</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>http</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>cpe:/a:thekelleys:dnsmasq:2.78</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>192.168.0.1</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>cpe:/a:thekelleys:dnsmasq:2.78</t>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cve_str</t>
         </is>
       </c>
     </row>
@@ -949,7 +601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,6 +640,11 @@
           <t>version</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cve_str</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ArchivosDePrueba/app/resources/data.xlsx
+++ b/ArchivosDePrueba/app/resources/data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,68 +471,6 @@
           <t>cve_str</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>dnsmasq</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>HTTP server (unknown)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -601,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,6 +584,68 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>HTTP server (unknown)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ArchivosDePrueba/app/resources/data.xlsx
+++ b/ArchivosDePrueba/app/resources/data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,12 +472,1167 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>192.168.0.1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>192.168.0.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>192.168.0.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>192.168.0.10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>msrpc</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Microsoft Windows RPC</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>192.168.0.10</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>netbios-ssn</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Microsoft Windows netbios-ssn</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>192.168.0.10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Apache httpd</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>192.168.0.10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>microsoft-ds</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>192.168.0.10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5432</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>postgresql</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>PostgreSQL DB</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>192.168.0.10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6666</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>irc</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>192.168.0.10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8080</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>http-proxy</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ip</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>hostname</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>port</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>protocol</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cve_str</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HTTP server (unknown)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>HTTP server (unknown)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>HTTP server (unknown)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>HTTP server (unknown)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>HTTP server (unknown)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Microsoft IIS httpd</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Microsoft IIS httpd</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8008</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>212.142.136.20</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bilbao.eus</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>212.142.136.20</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>bilbao.eus</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bilbao WebServer</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>212.142.136.20</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>bilbao.eus</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bilbao WebServer</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>35.206.71.198</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>deusto.es</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ssh</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>OpenSSH</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>CVE-2020-15778	6.8	https://vulners.com/cve/CVE-2020-15778;CVE-2020-12062	5.0	https://vulners.com/cve/CVE-2020-12062;CVE-2021-28041	4.6	https://vulners.com/cve/CVE-2021-28041;CVE-2021-41617	4.4	https://vulners.com/cve/CVE-2021-41617;CVE-2020-14145	4.3	https://vulners.com/cve/CVE-2020-14145;CVE-2016-20012	4.3	https://vulners.com/cve/CVE-2016-20012;CVE-2021-36368	2.6	https://vulners.com/cve/CVE-2021-36368</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>35.206.71.198</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>deusto.es</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>35.206.71.198</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>deusto.es</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>lighttpd</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CVE-2022-22707	4.3	https://vulners.com/cve/CVE-2022-22707;OSV:CVE-2022-41556	0.0	https://vulners.com/osv/OSV:CVE-2022-41556</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>35.206.71.198</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>deusto.es</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>lighttpd</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>CVE-2022-22707	4.3	https://vulners.com/cve/CVE-2022-22707;OSV:CVE-2022-41556	0.0	https://vulners.com/osv/OSV:CVE-2022-41556</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>portugalete.org</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>portugalete.org</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Microsoft IIS httpd</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>portugalete.org</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Microsoft IIS httpd</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>portugalete.org</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8008</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -531,122 +1686,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ip</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>hostname</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>port</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>protocol</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cve_str</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>HTTP server (unknown)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>8.8.8.8</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>dnsmasq</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/ArchivosDePrueba/app/resources/data.xlsx
+++ b/ArchivosDePrueba/app/resources/data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,280 +471,6 @@
           <t>cve_str</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>192.168.0.1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>dnsmasq</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>192.168.0.1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>http</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>192.168.0.1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>192.168.0.10</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>msrpc</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Microsoft Windows RPC</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>192.168.0.10</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>netbios-ssn</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Microsoft Windows netbios-ssn</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>192.168.0.10</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>443</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>http</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Apache httpd</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>192.168.0.10</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>445</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>microsoft-ds</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>192.168.0.10</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5432</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>postgresql</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>PostgreSQL DB</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>192.168.0.10</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>6666</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>irc</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>192.168.0.10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>8080</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>tcp</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>http-proxy</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -757,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1626,6 +1352,903 @@
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>192.168.0.1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>192.168.0.1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>192.168.0.1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>192.168.0.10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>msrpc</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Microsoft Windows RPC</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>192.168.0.10</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>netbios-ssn</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Microsoft Windows netbios-ssn</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>192.168.0.10</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Apache httpd</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>192.168.0.10</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>microsoft-ds</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>192.168.0.10</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5432</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>postgresql</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>PostgreSQL DB</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>192.168.0.10</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>6666</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>irc</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>192.168.0.10</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8080</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>http-proxy</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Microsoft IIS httpd</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Microsoft IIS httpd</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>8008</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>HTTP server (unknown)</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Microsoft IIS httpd</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Microsoft IIS httpd</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>santurtzi.net</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>8008</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>212.142.136.20</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>bilbao.eus</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>212.142.136.20</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>bilbao.eus</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Bilbao WebServer</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>212.142.136.20</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>bilbao.eus</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Bilbao WebServer</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>portugalete.org</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>portugalete.org</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Microsoft IIS httpd</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>portugalete.org</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Microsoft IIS httpd</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>80.245.2.142</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>portugalete.org</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>8008</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>HTTP server (unknown)</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1638,7 +2261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1683,6 +2306,101 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>34.96.87.135</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>unav.edu</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>34.96.87.135</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>unav.edu</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>34.96.87.135</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>unav.edu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>tcp</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>dnsmasq</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>CVE-2020-25682	8.3	https://vulners.com/cve/CVE-2020-25682;CVE-2020-25681	8.3	https://vulners.com/cve/CVE-2020-25681;CVE-2020-25687	7.1	https://vulners.com/cve/CVE-2020-25687;CVE-2020-25683	7.1	https://vulners.com/cve/CVE-2020-25683;CVE-2017-15107	5.0	https://vulners.com/cve/CVE-2017-15107;OSV:CVE-2020-25685	4.3	https://vulners.com/osv/OSV:CVE-2020-25685;CVE-2021-3448	4.3	https://vulners.com/cve/CVE-2021-3448;CVE-2020-25686	4.3	https://vulners.com/cve/CVE-2020-25686;CVE-2020-25685	4.3	https://vulners.com/cve/CVE-2020-25685;CVE-2020-25684	4.3	https://vulners.com/cve/CVE-2020-25684;CVE-2019-14834	4.3	https://vulners.com/cve/CVE-2019-14834;OSV:CVE-2021-3448	0.0	https://vulners.com/osv/OSV:CVE-2021-3448;CVE-2023-28450	0.0	https://vulners.com/cve/CVE-2023-28450;CVE-2022-0934	0.0	https://vulners.com/cve/CVE-2022-0934</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
